--- a/UAE_eDNA/UAE_Lab_Log.xlsx
+++ b/UAE_eDNA/UAE_Lab_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90b97bbe2797a372/Documents/GitHub/Notebook-Directory/WDPrada_Lab_Notebook/UAE_eDNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1AED11A-CB3B-4D54-B2B9-FADD4518C54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{E1AED11A-CB3B-4D54-B2B9-FADD4518C54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98BC8ED-58D0-47A8-A772-A9106E2AE753}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>UAE Task Log</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Juliane doing Tape station quantification next week - all info in UAE drive</t>
+  </si>
+  <si>
+    <t>Contacted Janet for sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooled "GSO_UAE_DMB_2ndPCR_2-16-23_JM" </t>
+  </si>
+  <si>
+    <t>Pooled samples in 1.5mL tube on GSO_UAE_DMB Post Pcr Box - Freezer D shelf 3</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -96,25 +105,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -335,9 +434,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -348,12 +449,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -366,58 +467,90 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>44981</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>44984</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C5" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
